--- a/results/mp/deberta/corona/confidence/126/stop-words-topk-0.35/avg_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/126/stop-words-topk-0.35/avg_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="1029">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="1029">
   <si>
     <t>anchor score</t>
   </si>
@@ -343,526 +343,526 @@
     <t>sick</t>
   </si>
   <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>charged</t>
+  </si>
+  <si>
+    <t>shock</t>
+  </si>
+  <si>
+    <t>extra</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>especially</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>problems</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>insights</t>
+  </si>
+  <si>
+    <t>flour</t>
+  </si>
+  <si>
+    <t>surprise</t>
+  </si>
+  <si>
+    <t>options</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>blame</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>tech</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>helpful</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>donations</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>trading</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>battle</t>
+  </si>
+  <si>
+    <t>deliver</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>started</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>combat</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>mortgage</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>inflated</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>worry</t>
+  </si>
+  <si>
+    <t>quick</t>
+  </si>
+  <si>
+    <t>vulnerable</t>
+  </si>
+  <si>
+    <t>non</t>
+  </si>
+  <si>
+    <t>survive</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>provide</t>
+  </si>
+  <si>
+    <t>experience</t>
+  </si>
+  <si>
+    <t>lowest</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>stimulus</t>
+  </si>
+  <si>
+    <t>putting</t>
+  </si>
+  <si>
+    <t>st</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>become</t>
+  </si>
+  <si>
+    <t>worried</t>
+  </si>
+  <si>
+    <t>eco</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>rest</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>customers</t>
+  </si>
+  <si>
+    <t>retailers</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>shops</t>
+  </si>
+  <si>
+    <t>amazon</t>
+  </si>
+  <si>
+    <t>everything</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>banks</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>companies</t>
+  </si>
+  <si>
+    <t>self</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>global</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>virus</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>outbreak</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>going</t>
+  </si>
+  <si>
+    <t>due</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>demand</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>charged</t>
-  </si>
-  <si>
-    <t>shock</t>
-  </si>
-  <si>
-    <t>extra</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>especially</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>problems</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>insights</t>
-  </si>
-  <si>
-    <t>flour</t>
-  </si>
-  <si>
-    <t>surprise</t>
-  </si>
-  <si>
-    <t>options</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>blame</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>tech</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>helpful</t>
+    <t>heroes</t>
   </si>
   <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>donations</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>trading</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>battle</t>
-  </si>
-  <si>
-    <t>deliver</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>started</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>combat</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>mortgage</t>
-  </si>
-  <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>inflated</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>worry</t>
-  </si>
-  <si>
-    <t>quick</t>
-  </si>
-  <si>
-    <t>vulnerable</t>
-  </si>
-  <si>
-    <t>non</t>
-  </si>
-  <si>
-    <t>survive</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>provide</t>
-  </si>
-  <si>
-    <t>experience</t>
-  </si>
-  <si>
-    <t>lowest</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>power</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>team</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>q</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>gold</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>website</t>
-  </si>
-  <si>
-    <t>stimulus</t>
-  </si>
-  <si>
-    <t>putting</t>
-  </si>
-  <si>
-    <t>st</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>shift</t>
-  </si>
-  <si>
-    <t>set</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>become</t>
-  </si>
-  <si>
-    <t>worried</t>
-  </si>
-  <si>
-    <t>eco</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>community</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>rest</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>financial</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>customers</t>
-  </si>
-  <si>
-    <t>retailers</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>india</t>
-  </si>
-  <si>
-    <t>shops</t>
-  </si>
-  <si>
-    <t>amazon</t>
-  </si>
-  <si>
-    <t>everything</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>banks</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>companies</t>
-  </si>
-  <si>
-    <t>self</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>global</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>may</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>virus</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>see</t>
-  </si>
-  <si>
-    <t>supply</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>outbreak</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>going</t>
-  </si>
-  <si>
-    <t>due</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>demand</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>heroes</t>
   </si>
   <si>
     <t>creative</t>
@@ -3469,7 +3469,7 @@
         <v>58</v>
       </c>
       <c r="J1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3798,7 +3798,7 @@
         <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K8">
         <v>0.8110236220472441</v>
@@ -3898,7 +3898,7 @@
         <v>4</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K10">
         <v>0.7777777777777778</v>
@@ -3948,7 +3948,7 @@
         <v>145</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K11">
         <v>0.7692307692307693</v>
@@ -3998,7 +3998,7 @@
         <v>6</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K12">
         <v>0.7543859649122807</v>
@@ -4098,7 +4098,7 @@
         <v>3</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K14">
         <v>0.7215189873417721</v>
@@ -4148,7 +4148,7 @@
         <v>15</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K15">
         <v>0.7142857142857143</v>
@@ -4198,28 +4198,28 @@
         <v>8</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>109</v>
+        <v>217</v>
       </c>
       <c r="K16">
-        <v>0.6623376623376623</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L16">
-        <v>153</v>
+        <v>93</v>
       </c>
       <c r="M16">
-        <v>161</v>
+        <v>94</v>
       </c>
       <c r="N16">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="O16">
-        <v>0.05000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P16" t="b">
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>78</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -4248,28 +4248,28 @@
         <v>20</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>219</v>
+        <v>280</v>
       </c>
       <c r="K17">
-        <v>0.6595744680851063</v>
+        <v>0.6401673640167364</v>
       </c>
       <c r="L17">
-        <v>93</v>
+        <v>153</v>
       </c>
       <c r="M17">
-        <v>94</v>
+        <v>153</v>
       </c>
       <c r="N17">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>48</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -4298,7 +4298,7 @@
         <v>4</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K18">
         <v>0.5957446808510638</v>
@@ -4348,7 +4348,7 @@
         <v>4</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K19">
         <v>0.5934065934065934</v>
@@ -4398,7 +4398,7 @@
         <v>7</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K20">
         <v>0.5925925925925926</v>
@@ -4548,7 +4548,7 @@
         <v>12</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K23">
         <v>0.5625</v>
@@ -4598,28 +4598,28 @@
         <v>16</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="K24">
-        <v>0.5501519756838906</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="L24">
-        <v>181</v>
+        <v>19</v>
       </c>
       <c r="M24">
-        <v>192</v>
+        <v>20</v>
       </c>
       <c r="N24">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="O24">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P24" t="b">
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>148</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -4648,28 +4648,28 @@
         <v>16</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>148</v>
+        <v>282</v>
       </c>
       <c r="K25">
-        <v>0.5428571428571428</v>
+        <v>0.5323529411764706</v>
       </c>
       <c r="L25">
-        <v>19</v>
+        <v>181</v>
       </c>
       <c r="M25">
-        <v>20</v>
+        <v>181</v>
       </c>
       <c r="N25">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>16</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -4848,7 +4848,7 @@
         <v>8</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K29">
         <v>0.4724137931034483</v>
@@ -4898,7 +4898,7 @@
         <v>4</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K30">
         <v>0.4651162790697674</v>
@@ -4948,7 +4948,7 @@
         <v>4</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K31">
         <v>0.4554973821989529</v>
@@ -5048,7 +5048,7 @@
         <v>13</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K33">
         <v>0.4328358208955224</v>
@@ -5148,7 +5148,7 @@
         <v>11</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K35">
         <v>0.4074074074074074</v>
@@ -5648,7 +5648,7 @@
         <v>56</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K45">
         <v>0.3333333333333333</v>
@@ -6998,7 +6998,7 @@
         <v>442</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K72">
         <v>0.2711864406779661</v>
@@ -7148,7 +7148,7 @@
         <v>6</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K75">
         <v>0.2666666666666667</v>
@@ -7198,7 +7198,7 @@
         <v>12</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K76">
         <v>0.2641509433962264</v>
@@ -7348,7 +7348,7 @@
         <v>7</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K79">
         <v>0.25</v>
@@ -7698,7 +7698,7 @@
         <v>7</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K86">
         <v>0.2469733656174334</v>
@@ -7748,7 +7748,7 @@
         <v>45</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K87">
         <v>0.2421052631578947</v>
@@ -7848,7 +7848,7 @@
         <v>15</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K89">
         <v>0.2391304347826087</v>
@@ -8577,25 +8577,25 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.09302325581395349</v>
+        <v>0.09259259259259259</v>
       </c>
       <c r="C104">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D104">
-        <v>161</v>
+        <v>6</v>
       </c>
       <c r="E104">
-        <v>0.95</v>
+        <v>0.17</v>
       </c>
       <c r="F104">
-        <v>0.05000000000000004</v>
+        <v>0.83</v>
       </c>
       <c r="G104" t="b">
         <v>1</v>
       </c>
       <c r="H104">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="J104" s="1" t="s">
         <v>346</v>
@@ -8627,25 +8627,25 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.09259259259259259</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C105">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D105">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E105">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="F105">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="G105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H105">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="J105" s="1" t="s">
         <v>347</v>
@@ -8677,7 +8677,7 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.09090909090909091</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -8695,7 +8695,7 @@
         <v>0</v>
       </c>
       <c r="H106">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J106" s="1" t="s">
         <v>348</v>
@@ -8783,16 +8783,16 @@
         <v>1</v>
       </c>
       <c r="D108">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F108">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H108">
         <v>11</v>
@@ -8830,25 +8830,25 @@
         <v>0.08333333333333333</v>
       </c>
       <c r="C109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D109">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E109">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F109">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H109">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K109">
         <v>0.2165605095541401</v>
@@ -8880,22 +8880,22 @@
         <v>0.08333333333333333</v>
       </c>
       <c r="C110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D110">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F110">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H110">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="J110" s="1" t="s">
         <v>350</v>
@@ -8933,16 +8933,16 @@
         <v>1</v>
       </c>
       <c r="D111">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E111">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F111">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H111">
         <v>11</v>
@@ -8977,13 +8977,13 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.08333333333333333</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="C112">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D112">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E112">
         <v>0</v>
@@ -8995,10 +8995,10 @@
         <v>0</v>
       </c>
       <c r="H112">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K112">
         <v>0.2121212121212121</v>
@@ -9027,25 +9027,25 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.08108108108108109</v>
+        <v>0.08</v>
       </c>
       <c r="C113">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D113">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F113">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H113">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="J113" s="1" t="s">
         <v>352</v>
@@ -9077,25 +9077,25 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.08</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D114">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E114">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F114">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G114" t="b">
         <v>1</v>
       </c>
       <c r="H114">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="J114" s="1" t="s">
         <v>353</v>
@@ -9133,16 +9133,16 @@
         <v>1</v>
       </c>
       <c r="D115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E115">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F115">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G115" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H115">
         <v>12</v>
@@ -9183,16 +9183,16 @@
         <v>1</v>
       </c>
       <c r="D116">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F116">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H116">
         <v>12</v>
@@ -9227,25 +9227,25 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.07692307692307693</v>
+        <v>0.075</v>
       </c>
       <c r="C117">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D117">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="E117">
-        <v>0.67</v>
+        <v>0.95</v>
       </c>
       <c r="F117">
-        <v>0.33</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G117" t="b">
         <v>1</v>
       </c>
       <c r="H117">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="J117" s="1" t="s">
         <v>356</v>
@@ -9277,28 +9277,28 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.075</v>
+        <v>0.07317073170731707</v>
       </c>
       <c r="C118">
         <v>3</v>
       </c>
       <c r="D118">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="E118">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="F118">
-        <v>0.05000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G118" t="b">
         <v>1</v>
       </c>
       <c r="H118">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K118">
         <v>0.2045454545454546</v>
@@ -9327,25 +9327,25 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.07317073170731707</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C119">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D119">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="E119">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="F119">
-        <v>0.08999999999999997</v>
+        <v>1</v>
       </c>
       <c r="G119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H119">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="J119" s="1" t="s">
         <v>357</v>
@@ -9383,16 +9383,16 @@
         <v>1</v>
       </c>
       <c r="D120">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F120">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H120">
         <v>13</v>
@@ -9433,13 +9433,13 @@
         <v>1</v>
       </c>
       <c r="D121">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E121">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F121">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G121" t="b">
         <v>1</v>
@@ -9483,13 +9483,13 @@
         <v>1</v>
       </c>
       <c r="D122">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E122">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="F122">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G122" t="b">
         <v>1</v>
@@ -9533,13 +9533,13 @@
         <v>1</v>
       </c>
       <c r="D123">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E123">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="F123">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="G123" t="b">
         <v>1</v>
@@ -9548,7 +9548,7 @@
         <v>13</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K123">
         <v>0.2</v>
@@ -9577,25 +9577,25 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C124">
         <v>1</v>
       </c>
       <c r="D124">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E124">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F124">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G124" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H124">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J124" s="1" t="s">
         <v>361</v>
@@ -9627,28 +9627,28 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.06918238993710692</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C125">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D125">
-        <v>192</v>
+        <v>2</v>
       </c>
       <c r="E125">
-        <v>0.9399999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="F125">
-        <v>0.06000000000000005</v>
+        <v>0.5</v>
       </c>
       <c r="G125" t="b">
         <v>1</v>
       </c>
       <c r="H125">
-        <v>148</v>
+        <v>14</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K125">
         <v>0.2</v>
@@ -9680,22 +9680,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="C126">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D126">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E126">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F126">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H126">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="J126" s="1" t="s">
         <v>362</v>
@@ -9733,13 +9733,13 @@
         <v>1</v>
       </c>
       <c r="D127">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="E127">
-        <v>0.5</v>
+        <v>0.98</v>
       </c>
       <c r="F127">
-        <v>0.5</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G127" t="b">
         <v>1</v>
@@ -9780,22 +9780,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="C128">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D128">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E128">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F128">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G128" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H128">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="J128" s="1" t="s">
         <v>364</v>
@@ -9830,22 +9830,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="C129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D129">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="E129">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F129">
-        <v>0.02000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H129">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>365</v>
@@ -9877,13 +9877,13 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.06666666666666667</v>
+        <v>0.06493506493506493</v>
       </c>
       <c r="C130">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D130">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E130">
         <v>0</v>
@@ -9895,7 +9895,7 @@
         <v>0</v>
       </c>
       <c r="H130">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>366</v>
@@ -9927,25 +9927,25 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.06666666666666667</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="C131">
         <v>2</v>
       </c>
       <c r="D131">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E131">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F131">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H131">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>367</v>
@@ -9977,13 +9977,13 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.06493506493506493</v>
+        <v>0.0625</v>
       </c>
       <c r="C132">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D132">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E132">
         <v>0</v>
@@ -9995,7 +9995,7 @@
         <v>0</v>
       </c>
       <c r="H132">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>368</v>
@@ -10027,25 +10027,25 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.06451612903225806</v>
+        <v>0.0625</v>
       </c>
       <c r="C133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D133">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E133">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="F133">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G133" t="b">
         <v>1</v>
       </c>
       <c r="H133">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>55</v>
@@ -10083,16 +10083,16 @@
         <v>1</v>
       </c>
       <c r="D134">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E134">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F134">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H134">
         <v>15</v>
@@ -10133,22 +10133,22 @@
         <v>1</v>
       </c>
       <c r="D135">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E135">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F135">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H135">
         <v>15</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K135">
         <v>0.1954887218045113</v>
@@ -10183,22 +10183,22 @@
         <v>1</v>
       </c>
       <c r="D136">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E136">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F136">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H136">
         <v>15</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K136">
         <v>0.1948051948051948</v>
@@ -10248,7 +10248,7 @@
         <v>15</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K137">
         <v>0.1944444444444444</v>
@@ -10277,25 +10277,25 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.0625</v>
+        <v>0.06122448979591837</v>
       </c>
       <c r="C138">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D138">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F138">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H138">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="J138" s="1" t="s">
         <v>370</v>
@@ -10327,7 +10327,7 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -10345,7 +10345,7 @@
         <v>0</v>
       </c>
       <c r="H139">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J139" s="1" t="s">
         <v>371</v>
@@ -10377,25 +10377,25 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.06122448979591837</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C140">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D140">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="E140">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F140">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H140">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="J140" s="1" t="s">
         <v>372</v>
@@ -10433,22 +10433,22 @@
         <v>1</v>
       </c>
       <c r="D141">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E141">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F141">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H141">
         <v>16</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K141">
         <v>0.1923076923076923</v>
@@ -10483,16 +10483,16 @@
         <v>1</v>
       </c>
       <c r="D142">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F142">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H142">
         <v>16</v>
@@ -10527,25 +10527,25 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C143">
         <v>1</v>
       </c>
       <c r="D143">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E143">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F143">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G143" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H143">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J143" s="1" t="s">
         <v>374</v>
@@ -10577,28 +10577,28 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C144">
         <v>1</v>
       </c>
       <c r="D144">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E144">
-        <v>0.92</v>
+        <v>0.8</v>
       </c>
       <c r="F144">
-        <v>0.07999999999999996</v>
+        <v>0.2</v>
       </c>
       <c r="G144" t="b">
         <v>1</v>
       </c>
       <c r="H144">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K144">
         <v>0.1904761904761905</v>
@@ -10677,25 +10677,25 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.05555555555555555</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C146">
         <v>1</v>
       </c>
       <c r="D146">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E146">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="F146">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="G146" t="b">
         <v>1</v>
       </c>
       <c r="H146">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>376</v>
@@ -10727,13 +10727,13 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.05555555555555555</v>
+        <v>0.05</v>
       </c>
       <c r="C147">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D147">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E147">
         <v>0</v>
@@ -10745,7 +10745,7 @@
         <v>0</v>
       </c>
       <c r="H147">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="J147" s="1" t="s">
         <v>377</v>
@@ -10777,25 +10777,25 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.05263157894736842</v>
+        <v>0.05</v>
       </c>
       <c r="C148">
         <v>1</v>
       </c>
       <c r="D148">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E148">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F148">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G148" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H148">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>378</v>
@@ -10827,13 +10827,13 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.05</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C149">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D149">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E149">
         <v>0</v>
@@ -10845,7 +10845,7 @@
         <v>0</v>
       </c>
       <c r="H149">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>379</v>
@@ -10877,28 +10877,28 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.05</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C150">
         <v>1</v>
       </c>
       <c r="D150">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E150">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F150">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H150">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J150" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K150">
         <v>0.1875</v>
@@ -10927,25 +10927,25 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.04761904761904762</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C151">
         <v>1</v>
       </c>
       <c r="D151">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E151">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F151">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H151">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>380</v>
@@ -10983,13 +10983,13 @@
         <v>1</v>
       </c>
       <c r="D152">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E152">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="F152">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="G152" t="b">
         <v>1</v>
@@ -11077,28 +11077,28 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.04545454545454546</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C154">
         <v>1</v>
       </c>
       <c r="D154">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E154">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F154">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H154">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J154" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K154">
         <v>0.1818181818181818</v>
@@ -11127,25 +11127,25 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.04545454545454546</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C155">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D155">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E155">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="F155">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="G155" t="b">
         <v>1</v>
       </c>
       <c r="H155">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>383</v>
@@ -11183,16 +11183,16 @@
         <v>1</v>
       </c>
       <c r="D156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E156">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F156">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H156">
         <v>22</v>
@@ -11230,22 +11230,22 @@
         <v>0.04347826086956522</v>
       </c>
       <c r="C157">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D157">
-        <v>8</v>
+        <v>116</v>
       </c>
       <c r="E157">
-        <v>0.62</v>
+        <v>0.98</v>
       </c>
       <c r="F157">
-        <v>0.38</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G157" t="b">
         <v>1</v>
       </c>
       <c r="H157">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>385</v>
@@ -11283,13 +11283,13 @@
         <v>1</v>
       </c>
       <c r="D158">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E158">
-        <v>0.5</v>
+        <v>0.92</v>
       </c>
       <c r="F158">
-        <v>0.5</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G158" t="b">
         <v>1</v>
@@ -11330,25 +11330,25 @@
         <v>0.04347826086956522</v>
       </c>
       <c r="C159">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D159">
-        <v>116</v>
+        <v>1</v>
       </c>
       <c r="E159">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F159">
-        <v>0.02000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H159">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J159" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K159">
         <v>0.178743961352657</v>
@@ -11377,25 +11377,25 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.04347826086956522</v>
+        <v>0.0425531914893617</v>
       </c>
       <c r="C160">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D160">
         <v>12</v>
       </c>
       <c r="E160">
-        <v>0.92</v>
+        <v>0.83</v>
       </c>
       <c r="F160">
-        <v>0.07999999999999996</v>
+        <v>0.17</v>
       </c>
       <c r="G160" t="b">
         <v>1</v>
       </c>
       <c r="H160">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>387</v>
@@ -11427,25 +11427,25 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.04347826086956522</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C161">
         <v>1</v>
       </c>
       <c r="D161">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F161">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H161">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>388</v>
@@ -11477,25 +11477,25 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.0425531914893617</v>
+        <v>0.04026845637583892</v>
       </c>
       <c r="C162">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D162">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E162">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F162">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H162">
-        <v>45</v>
+        <v>143</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>389</v>
@@ -11527,7 +11527,7 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.04166666666666666</v>
+        <v>0.04</v>
       </c>
       <c r="C163">
         <v>1</v>
@@ -11545,7 +11545,7 @@
         <v>1</v>
       </c>
       <c r="H163">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>390</v>
@@ -11577,28 +11577,28 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.04026845637583892</v>
+        <v>0.04</v>
       </c>
       <c r="C164">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D164">
-        <v>6</v>
+        <v>104</v>
       </c>
       <c r="E164">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="F164">
-        <v>1</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H164">
-        <v>143</v>
+        <v>24</v>
       </c>
       <c r="J164" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K164">
         <v>0.1707317073170732</v>
@@ -11633,13 +11633,13 @@
         <v>1</v>
       </c>
       <c r="D165">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E165">
-        <v>0.67</v>
+        <v>0.86</v>
       </c>
       <c r="F165">
-        <v>0.33</v>
+        <v>0.14</v>
       </c>
       <c r="G165" t="b">
         <v>1</v>
@@ -11677,25 +11677,25 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.04</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C166">
         <v>1</v>
       </c>
       <c r="D166">
-        <v>104</v>
+        <v>1</v>
       </c>
       <c r="E166">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="F166">
-        <v>0.01000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G166" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H166">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>392</v>
@@ -11727,25 +11727,25 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.04</v>
+        <v>0.03773584905660377</v>
       </c>
       <c r="C167">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D167">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E167">
-        <v>0.86</v>
+        <v>0.6</v>
       </c>
       <c r="F167">
-        <v>0.14</v>
+        <v>0.4</v>
       </c>
       <c r="G167" t="b">
         <v>1</v>
       </c>
       <c r="H167">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>393</v>
@@ -11777,7 +11777,7 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.03846153846153846</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C168">
         <v>1</v>
@@ -11795,7 +11795,7 @@
         <v>0</v>
       </c>
       <c r="H168">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>394</v>
@@ -11827,25 +11827,25 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.03773584905660377</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C169">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D169">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E169">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="F169">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="G169" t="b">
         <v>1</v>
       </c>
       <c r="H169">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>395</v>
@@ -11977,7 +11977,7 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.03703703703703703</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C172">
         <v>1</v>
@@ -11995,7 +11995,7 @@
         <v>0</v>
       </c>
       <c r="H172">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>398</v>
@@ -12027,28 +12027,28 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.03703703703703703</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C173">
         <v>1</v>
       </c>
       <c r="D173">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E173">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F173">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G173" t="b">
         <v>1</v>
       </c>
       <c r="H173">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J173" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K173">
         <v>0.1666666666666667</v>
@@ -12127,25 +12127,25 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.03571428571428571</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="C175">
         <v>1</v>
       </c>
       <c r="D175">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E175">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F175">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G175" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H175">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>400</v>
@@ -12177,7 +12177,7 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.03571428571428571</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="C176">
         <v>1</v>
@@ -12195,10 +12195,10 @@
         <v>0</v>
       </c>
       <c r="H176">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J176" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K176">
         <v>0.1666666666666667</v>
@@ -12233,16 +12233,16 @@
         <v>1</v>
       </c>
       <c r="D177">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="E177">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F177">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H177">
         <v>28</v>
@@ -12277,25 +12277,25 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.03448275862068965</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C178">
         <v>1</v>
       </c>
       <c r="D178">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E178">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F178">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H178">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>402</v>
@@ -12327,25 +12327,25 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.03448275862068965</v>
+        <v>0.03164556962025317</v>
       </c>
       <c r="C179">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D179">
-        <v>37</v>
+        <v>142</v>
       </c>
       <c r="E179">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F179">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G179" t="b">
         <v>1</v>
       </c>
       <c r="H179">
-        <v>28</v>
+        <v>153</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>403</v>
@@ -12377,25 +12377,25 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.03225806451612903</v>
+        <v>0.03125</v>
       </c>
       <c r="C180">
         <v>1</v>
       </c>
       <c r="D180">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E180">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F180">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G180" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H180">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>404</v>
@@ -12427,25 +12427,25 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.03164556962025317</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="C181">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D181">
-        <v>142</v>
+        <v>1</v>
       </c>
       <c r="E181">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F181">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G181" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H181">
-        <v>153</v>
+        <v>32</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>405</v>
@@ -12477,7 +12477,7 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.03125</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="C182">
         <v>1</v>
@@ -12495,7 +12495,7 @@
         <v>0</v>
       </c>
       <c r="H182">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>406</v>
@@ -12527,7 +12527,7 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.0303030303030303</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="C183">
         <v>1</v>
@@ -12545,7 +12545,7 @@
         <v>0</v>
       </c>
       <c r="H183">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>407</v>
@@ -12577,25 +12577,25 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.02941176470588235</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="C184">
         <v>1</v>
       </c>
       <c r="D184">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E184">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="F184">
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="G184" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H184">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>408</v>
@@ -12627,25 +12627,25 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.02941176470588235</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="C185">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D185">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E185">
-        <v>0</v>
+        <v>0.82</v>
       </c>
       <c r="F185">
-        <v>1</v>
+        <v>0.18</v>
       </c>
       <c r="G185" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H185">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>409</v>
@@ -12677,25 +12677,25 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.02857142857142857</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C186">
         <v>1</v>
       </c>
       <c r="D186">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E186">
-        <v>0.88</v>
+        <v>0.92</v>
       </c>
       <c r="F186">
-        <v>0.12</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G186" t="b">
         <v>1</v>
       </c>
       <c r="H186">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>410</v>
@@ -12727,25 +12727,25 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.02857142857142857</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="C187">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D187">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E187">
-        <v>0.82</v>
+        <v>0.8</v>
       </c>
       <c r="F187">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="G187" t="b">
         <v>1</v>
       </c>
       <c r="H187">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>411</v>
@@ -12777,13 +12777,13 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.02777777777777778</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="C188">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D188">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E188">
         <v>0.92</v>
@@ -12795,7 +12795,7 @@
         <v>1</v>
       </c>
       <c r="H188">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>412</v>
@@ -12877,25 +12877,25 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.02702702702702703</v>
+        <v>0.02678571428571428</v>
       </c>
       <c r="C190">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D190">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E190">
-        <v>0.92</v>
+        <v>0.83</v>
       </c>
       <c r="F190">
-        <v>0.07999999999999996</v>
+        <v>0.17</v>
       </c>
       <c r="G190" t="b">
         <v>1</v>
       </c>
       <c r="H190">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>414</v>
@@ -12927,25 +12927,25 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.02702702702702703</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="C191">
         <v>1</v>
       </c>
       <c r="D191">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E191">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="F191">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G191" t="b">
         <v>1</v>
       </c>
       <c r="H191">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>415</v>
@@ -12977,25 +12977,25 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.02678571428571428</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="C192">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D192">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E192">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F192">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G192" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H192">
-        <v>109</v>
+        <v>38</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>416</v>
@@ -13027,25 +13027,25 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.02631578947368421</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="C193">
         <v>1</v>
       </c>
       <c r="D193">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E193">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F193">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G193" t="b">
         <v>1</v>
       </c>
       <c r="H193">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>417</v>
@@ -13127,25 +13127,25 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.02564102564102564</v>
+        <v>0.025</v>
       </c>
       <c r="C195">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D195">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E195">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F195">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G195" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H195">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>419</v>
@@ -13177,7 +13177,7 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.02564102564102564</v>
+        <v>0.025</v>
       </c>
       <c r="C196">
         <v>1</v>
@@ -13195,7 +13195,7 @@
         <v>0</v>
       </c>
       <c r="H196">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>420</v>
@@ -13233,16 +13233,16 @@
         <v>2</v>
       </c>
       <c r="D197">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="E197">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="F197">
-        <v>1</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G197" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H197">
         <v>78</v>
@@ -13277,25 +13277,25 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.025</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="C198">
         <v>1</v>
       </c>
       <c r="D198">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E198">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F198">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G198" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H198">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>422</v>
@@ -13327,25 +13327,25 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.025</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C199">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D199">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="E199">
-        <v>0.91</v>
+        <v>0.75</v>
       </c>
       <c r="F199">
-        <v>0.08999999999999997</v>
+        <v>0.25</v>
       </c>
       <c r="G199" t="b">
         <v>1</v>
       </c>
       <c r="H199">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>423</v>
@@ -13377,25 +13377,25 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.02439024390243903</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C200">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D200">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E200">
-        <v>0.8</v>
+        <v>0.87</v>
       </c>
       <c r="F200">
-        <v>0.2</v>
+        <v>0.13</v>
       </c>
       <c r="G200" t="b">
         <v>1</v>
       </c>
       <c r="H200">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>424</v>
@@ -13427,25 +13427,25 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.02380952380952381</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="C201">
         <v>1</v>
       </c>
       <c r="D201">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E201">
-        <v>0.75</v>
+        <v>0.83</v>
       </c>
       <c r="F201">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="G201" t="b">
         <v>1</v>
       </c>
       <c r="H201">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>425</v>
@@ -13477,28 +13477,28 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.02380952380952381</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="C202">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D202">
         <v>15</v>
       </c>
       <c r="E202">
-        <v>0.87</v>
+        <v>0.93</v>
       </c>
       <c r="F202">
-        <v>0.13</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G202" t="b">
         <v>1</v>
       </c>
       <c r="H202">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="J202" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K202">
         <v>0.16</v>
@@ -13527,25 +13527,25 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.02325581395348837</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="C203">
         <v>1</v>
       </c>
       <c r="D203">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E203">
-        <v>0.83</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F203">
-        <v>0.17</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G203" t="b">
         <v>1</v>
       </c>
       <c r="H203">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>426</v>
@@ -13577,25 +13577,25 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.02325581395348837</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C204">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D204">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E204">
-        <v>0.93</v>
+        <v>0.82</v>
       </c>
       <c r="F204">
-        <v>0.06999999999999995</v>
+        <v>0.18</v>
       </c>
       <c r="G204" t="b">
         <v>1</v>
       </c>
       <c r="H204">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>427</v>
@@ -13627,25 +13627,25 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.02272727272727273</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C205">
         <v>1</v>
       </c>
       <c r="D205">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E205">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F205">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G205" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H205">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>428</v>
@@ -13677,25 +13677,25 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.02222222222222222</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="C206">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D206">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E206">
-        <v>0.82</v>
+        <v>0.8</v>
       </c>
       <c r="F206">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="G206" t="b">
         <v>1</v>
       </c>
       <c r="H206">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>429</v>
@@ -13727,25 +13727,25 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.02222222222222222</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="C207">
         <v>1</v>
       </c>
       <c r="D207">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E207">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F207">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H207">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>430</v>
@@ -13777,25 +13777,25 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.02173913043478261</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="C208">
         <v>1</v>
       </c>
       <c r="D208">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E208">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="F208">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="G208" t="b">
         <v>1</v>
       </c>
       <c r="H208">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>431</v>
@@ -13827,25 +13827,25 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.02127659574468085</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="C209">
         <v>1</v>
       </c>
       <c r="D209">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E209">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F209">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G209" t="b">
         <v>1</v>
       </c>
       <c r="H209">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>432</v>
@@ -13880,22 +13880,22 @@
         <v>0.02083333333333333</v>
       </c>
       <c r="C210">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D210">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E210">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="F210">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="G210" t="b">
         <v>1</v>
       </c>
       <c r="H210">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>433</v>
@@ -13927,28 +13927,28 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.02083333333333333</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="C211">
         <v>1</v>
       </c>
       <c r="D211">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E211">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="F211">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="G211" t="b">
         <v>1</v>
       </c>
       <c r="H211">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J211" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K211">
         <v>0.1515151515151515</v>
@@ -13977,25 +13977,25 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.02083333333333333</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="C212">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D212">
-        <v>7</v>
+        <v>94</v>
       </c>
       <c r="E212">
-        <v>0.71</v>
+        <v>0.99</v>
       </c>
       <c r="F212">
-        <v>0.29</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G212" t="b">
         <v>1</v>
       </c>
       <c r="H212">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>434</v>
@@ -14027,25 +14027,25 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.02040816326530612</v>
+        <v>0.02</v>
       </c>
       <c r="C213">
         <v>1</v>
       </c>
       <c r="D213">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E213">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F213">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G213" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H213">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>435</v>
@@ -14077,28 +14077,28 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.02040816326530612</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="C214">
         <v>1</v>
       </c>
       <c r="D214">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="E214">
-        <v>0.99</v>
+        <v>0.88</v>
       </c>
       <c r="F214">
-        <v>0.01000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="G214" t="b">
         <v>1</v>
       </c>
       <c r="H214">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J214" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K214">
         <v>0.1481481481481481</v>
@@ -14127,25 +14127,25 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.02</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="C215">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D215">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E215">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F215">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G215" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H215">
-        <v>49</v>
+        <v>156</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>436</v>
@@ -14177,25 +14177,25 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.0196078431372549</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="C216">
         <v>1</v>
       </c>
       <c r="D216">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E216">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F216">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G216" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H216">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>437</v>
@@ -14227,25 +14227,25 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.01886792452830189</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="C217">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D217">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="E217">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="F217">
-        <v>0.05000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G217" t="b">
         <v>1</v>
       </c>
       <c r="H217">
-        <v>156</v>
+        <v>56</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>438</v>
@@ -14277,25 +14277,25 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.01785714285714286</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="C218">
         <v>1</v>
       </c>
       <c r="D218">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E218">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F218">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G218" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H218">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>439</v>
@@ -14327,28 +14327,28 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.01754385964912281</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="C219">
         <v>1</v>
       </c>
       <c r="D219">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E219">
-        <v>0.91</v>
+        <v>0.8</v>
       </c>
       <c r="F219">
-        <v>0.08999999999999997</v>
+        <v>0.2</v>
       </c>
       <c r="G219" t="b">
         <v>1</v>
       </c>
       <c r="H219">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J219" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K219">
         <v>0.1449275362318841</v>
@@ -14377,25 +14377,25 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.01694915254237288</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="C220">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D220">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E220">
-        <v>0.93</v>
+        <v>0.8</v>
       </c>
       <c r="F220">
-        <v>0.06999999999999995</v>
+        <v>0.2</v>
       </c>
       <c r="G220" t="b">
         <v>1</v>
       </c>
       <c r="H220">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>440</v>
@@ -14427,7 +14427,7 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.01694915254237288</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="C221">
         <v>1</v>
@@ -14445,7 +14445,7 @@
         <v>1</v>
       </c>
       <c r="H221">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>441</v>
@@ -14477,25 +14477,25 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.01666666666666667</v>
+        <v>0.016</v>
       </c>
       <c r="C222">
         <v>2</v>
       </c>
       <c r="D222">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="E222">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F222">
-        <v>0.2</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G222" t="b">
         <v>1</v>
       </c>
       <c r="H222">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>442</v>
@@ -14527,25 +14527,25 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.01612903225806452</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="C223">
         <v>1</v>
       </c>
       <c r="D223">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E223">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F223">
-        <v>0.2</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G223" t="b">
         <v>1</v>
       </c>
       <c r="H223">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>443</v>
@@ -14577,25 +14577,25 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.016</v>
+        <v>0.01582278481012658</v>
       </c>
       <c r="C224">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D224">
-        <v>36</v>
+        <v>107</v>
       </c>
       <c r="E224">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="F224">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G224" t="b">
         <v>1</v>
       </c>
       <c r="H224">
-        <v>123</v>
+        <v>311</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>444</v>
@@ -14627,25 +14627,25 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.01587301587301587</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="C225">
         <v>1</v>
       </c>
       <c r="D225">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E225">
-        <v>0.9399999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="F225">
-        <v>0.06000000000000005</v>
+        <v>0.5</v>
       </c>
       <c r="G225" t="b">
         <v>1</v>
       </c>
       <c r="H225">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>445</v>
@@ -14677,25 +14677,25 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.01582278481012658</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="C226">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D226">
-        <v>107</v>
+        <v>4</v>
       </c>
       <c r="E226">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="F226">
-        <v>0.05000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="G226" t="b">
         <v>1</v>
       </c>
       <c r="H226">
-        <v>311</v>
+        <v>72</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>446</v>
@@ -14727,25 +14727,25 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.01538461538461539</v>
+        <v>0.01337792642140468</v>
       </c>
       <c r="C227">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D227">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="E227">
-        <v>0.5</v>
+        <v>0.93</v>
       </c>
       <c r="F227">
-        <v>0.5</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G227" t="b">
         <v>1</v>
       </c>
       <c r="H227">
-        <v>64</v>
+        <v>295</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>447</v>
@@ -14777,25 +14777,25 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.0136986301369863</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="C228">
         <v>1</v>
       </c>
       <c r="D228">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E228">
-        <v>0.75</v>
+        <v>0.83</v>
       </c>
       <c r="F228">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="G228" t="b">
         <v>1</v>
       </c>
       <c r="H228">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>448</v>
@@ -14827,25 +14827,25 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.01337792642140468</v>
+        <v>0.01265822784810127</v>
       </c>
       <c r="C229">
+        <v>1</v>
+      </c>
+      <c r="D229">
         <v>4</v>
       </c>
-      <c r="D229">
-        <v>54</v>
-      </c>
       <c r="E229">
-        <v>0.93</v>
+        <v>0.75</v>
       </c>
       <c r="F229">
-        <v>0.06999999999999995</v>
+        <v>0.25</v>
       </c>
       <c r="G229" t="b">
         <v>1</v>
       </c>
       <c r="H229">
-        <v>295</v>
+        <v>78</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>449</v>
@@ -14877,25 +14877,25 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.01333333333333333</v>
+        <v>0.0125</v>
       </c>
       <c r="C230">
         <v>1</v>
       </c>
       <c r="D230">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E230">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="F230">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G230" t="b">
         <v>1</v>
       </c>
       <c r="H230">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>450</v>
@@ -14927,25 +14927,25 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.01265822784810127</v>
+        <v>0.0119047619047619</v>
       </c>
       <c r="C231">
         <v>1</v>
       </c>
       <c r="D231">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E231">
-        <v>0.75</v>
+        <v>0.83</v>
       </c>
       <c r="F231">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="G231" t="b">
         <v>1</v>
       </c>
       <c r="H231">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>451</v>
@@ -14977,25 +14977,25 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.0125</v>
+        <v>0.01123595505617977</v>
       </c>
       <c r="C232">
         <v>1</v>
       </c>
       <c r="D232">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E232">
-        <v>0.67</v>
+        <v>0.88</v>
       </c>
       <c r="F232">
-        <v>0.33</v>
+        <v>0.12</v>
       </c>
       <c r="G232" t="b">
         <v>1</v>
       </c>
       <c r="H232">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>452</v>
@@ -15027,25 +15027,25 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.0119047619047619</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="C233">
         <v>1</v>
       </c>
       <c r="D233">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E233">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F233">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G233" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H233">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>453</v>
@@ -15077,25 +15077,25 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.01123595505617977</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="C234">
         <v>1</v>
       </c>
       <c r="D234">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E234">
-        <v>0.88</v>
+        <v>0.5</v>
       </c>
       <c r="F234">
-        <v>0.12</v>
+        <v>0.5</v>
       </c>
       <c r="G234" t="b">
         <v>1</v>
       </c>
       <c r="H234">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>454</v>
@@ -15127,28 +15127,28 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.01111111111111111</v>
+        <v>0.009900990099009901</v>
       </c>
       <c r="C235">
         <v>1</v>
       </c>
       <c r="D235">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E235">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F235">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G235" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H235">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="J235" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K235">
         <v>0.1428571428571428</v>
@@ -15177,25 +15177,25 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.0101010101010101</v>
+        <v>0.009803921568627451</v>
       </c>
       <c r="C236">
         <v>1</v>
       </c>
       <c r="D236">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E236">
-        <v>0.5</v>
+        <v>0.91</v>
       </c>
       <c r="F236">
-        <v>0.5</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G236" t="b">
         <v>1</v>
       </c>
       <c r="H236">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>455</v>
@@ -15227,25 +15227,25 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.009900990099009901</v>
+        <v>0.009635974304068522</v>
       </c>
       <c r="C237">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D237">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="E237">
-        <v>0.92</v>
+        <v>0.79</v>
       </c>
       <c r="F237">
-        <v>0.07999999999999996</v>
+        <v>0.21</v>
       </c>
       <c r="G237" t="b">
         <v>1</v>
       </c>
       <c r="H237">
-        <v>100</v>
+        <v>925</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>456</v>
@@ -15277,25 +15277,25 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.009803921568627451</v>
+        <v>0.009615384615384616</v>
       </c>
       <c r="C238">
         <v>1</v>
       </c>
       <c r="D238">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E238">
-        <v>0.91</v>
+        <v>0.67</v>
       </c>
       <c r="F238">
-        <v>0.08999999999999997</v>
+        <v>0.33</v>
       </c>
       <c r="G238" t="b">
         <v>1</v>
       </c>
       <c r="H238">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>457</v>
@@ -15327,25 +15327,25 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.009635974304068522</v>
+        <v>0.009523809523809525</v>
       </c>
       <c r="C239">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D239">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="E239">
-        <v>0.79</v>
+        <v>0.96</v>
       </c>
       <c r="F239">
-        <v>0.21</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G239" t="b">
         <v>1</v>
       </c>
       <c r="H239">
-        <v>925</v>
+        <v>104</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>458</v>
@@ -15377,25 +15377,25 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.009615384615384616</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="C240">
         <v>1</v>
       </c>
       <c r="D240">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="E240">
-        <v>0.67</v>
+        <v>0.96</v>
       </c>
       <c r="F240">
-        <v>0.33</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G240" t="b">
         <v>1</v>
       </c>
       <c r="H240">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>459</v>
@@ -15427,7 +15427,7 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.009523809523809525</v>
+        <v>0.009259259259259259</v>
       </c>
       <c r="C241">
         <v>1</v>
@@ -15445,7 +15445,7 @@
         <v>1</v>
       </c>
       <c r="H241">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>460</v>
@@ -15477,25 +15477,25 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.009433962264150943</v>
+        <v>0.009259259259259259</v>
       </c>
       <c r="C242">
         <v>1</v>
       </c>
       <c r="D242">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="E242">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="F242">
-        <v>0.04000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G242" t="b">
         <v>1</v>
       </c>
       <c r="H242">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>461</v>
@@ -15527,25 +15527,25 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.009259259259259259</v>
+        <v>0.00880503144654088</v>
       </c>
       <c r="C243">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D243">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="E243">
-        <v>0.96</v>
+        <v>0.91</v>
       </c>
       <c r="F243">
-        <v>0.04000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G243" t="b">
         <v>1</v>
       </c>
       <c r="H243">
-        <v>107</v>
+        <v>788</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>462</v>
@@ -15577,25 +15577,25 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.009259259259259259</v>
+        <v>0.008605851979345954</v>
       </c>
       <c r="C244">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D244">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="E244">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="F244">
-        <v>0.07999999999999996</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G244" t="b">
         <v>1</v>
       </c>
       <c r="H244">
-        <v>107</v>
+        <v>576</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>463</v>
@@ -15627,25 +15627,25 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.00880503144654088</v>
+        <v>0.008333333333333333</v>
       </c>
       <c r="C245">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D245">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="E245">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="F245">
-        <v>0.08999999999999997</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G245" t="b">
         <v>1</v>
       </c>
       <c r="H245">
-        <v>788</v>
+        <v>119</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>464</v>
@@ -15677,25 +15677,25 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.008605851979345954</v>
+        <v>0.007874015748031496</v>
       </c>
       <c r="C246">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D246">
-        <v>74</v>
+        <v>1</v>
       </c>
       <c r="E246">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F246">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G246" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H246">
-        <v>576</v>
+        <v>126</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>465</v>
@@ -15727,25 +15727,25 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>0.008333333333333333</v>
+        <v>0.007692307692307693</v>
       </c>
       <c r="C247">
         <v>1</v>
       </c>
       <c r="D247">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E247">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F247">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G247" t="b">
         <v>1</v>
       </c>
       <c r="H247">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>466</v>
@@ -15777,25 +15777,25 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>0.007874015748031496</v>
+        <v>0.007352941176470588</v>
       </c>
       <c r="C248">
         <v>1</v>
       </c>
       <c r="D248">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="E248">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F248">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G248" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H248">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>467</v>
@@ -15827,25 +15827,25 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>0.007692307692307693</v>
+        <v>0.007017543859649123</v>
       </c>
       <c r="C249">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D249">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="E249">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="F249">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G249" t="b">
         <v>1</v>
       </c>
       <c r="H249">
-        <v>129</v>
+        <v>283</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>468</v>
@@ -15877,25 +15877,25 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>0.007352941176470588</v>
+        <v>0.00641025641025641</v>
       </c>
       <c r="C250">
         <v>1</v>
       </c>
       <c r="D250">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="E250">
-        <v>0.96</v>
+        <v>0.89</v>
       </c>
       <c r="F250">
-        <v>0.04000000000000004</v>
+        <v>0.11</v>
       </c>
       <c r="G250" t="b">
         <v>1</v>
       </c>
       <c r="H250">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>469</v>
@@ -15927,25 +15927,25 @@
         <v>256</v>
       </c>
       <c r="B251">
-        <v>0.007017543859649123</v>
+        <v>0.006060606060606061</v>
       </c>
       <c r="C251">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D251">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="E251">
-        <v>0.95</v>
+        <v>0.86</v>
       </c>
       <c r="F251">
-        <v>0.05000000000000004</v>
+        <v>0.14</v>
       </c>
       <c r="G251" t="b">
         <v>1</v>
       </c>
       <c r="H251">
-        <v>283</v>
+        <v>164</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>470</v>
@@ -15977,25 +15977,25 @@
         <v>257</v>
       </c>
       <c r="B252">
-        <v>0.00641025641025641</v>
+        <v>0.006024096385542169</v>
       </c>
       <c r="C252">
         <v>1</v>
       </c>
       <c r="D252">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E252">
-        <v>0.89</v>
+        <v>0.95</v>
       </c>
       <c r="F252">
-        <v>0.11</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G252" t="b">
         <v>1</v>
       </c>
       <c r="H252">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>471</v>
@@ -16027,25 +16027,25 @@
         <v>258</v>
       </c>
       <c r="B253">
-        <v>0.006060606060606061</v>
+        <v>0.006024096385542169</v>
       </c>
       <c r="C253">
         <v>1</v>
       </c>
       <c r="D253">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E253">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F253">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="G253" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H253">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>472</v>
@@ -16077,25 +16077,25 @@
         <v>259</v>
       </c>
       <c r="B254">
-        <v>0.006024096385542169</v>
+        <v>0.005847953216374269</v>
       </c>
       <c r="C254">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D254">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="E254">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="F254">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G254" t="b">
         <v>1</v>
       </c>
       <c r="H254">
-        <v>165</v>
+        <v>340</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>473</v>
@@ -16127,28 +16127,28 @@
         <v>260</v>
       </c>
       <c r="B255">
-        <v>0.006024096385542169</v>
+        <v>0.005829358770535241</v>
       </c>
       <c r="C255">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D255">
-        <v>1</v>
+        <v>267</v>
       </c>
       <c r="E255">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F255">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G255" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H255">
-        <v>165</v>
+        <v>1876</v>
       </c>
       <c r="J255" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K255">
         <v>0.1415730337078652</v>
@@ -16177,25 +16177,25 @@
         <v>261</v>
       </c>
       <c r="B256">
-        <v>0.005847953216374269</v>
+        <v>0.005813953488372093</v>
       </c>
       <c r="C256">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D256">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="E256">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F256">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G256" t="b">
         <v>1</v>
       </c>
       <c r="H256">
-        <v>340</v>
+        <v>513</v>
       </c>
       <c r="J256" s="1" t="s">
         <v>474</v>
@@ -16227,28 +16227,28 @@
         <v>262</v>
       </c>
       <c r="B257">
-        <v>0.005829358770535241</v>
+        <v>0.005714285714285714</v>
       </c>
       <c r="C257">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D257">
+        <v>23</v>
+      </c>
+      <c r="E257">
+        <v>0.87</v>
+      </c>
+      <c r="F257">
+        <v>0.13</v>
+      </c>
+      <c r="G257" t="b">
+        <v>1</v>
+      </c>
+      <c r="H257">
+        <v>522</v>
+      </c>
+      <c r="J257" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="E257">
-        <v>0.96</v>
-      </c>
-      <c r="F257">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="G257" t="b">
-        <v>1</v>
-      </c>
-      <c r="H257">
-        <v>1876</v>
-      </c>
-      <c r="J257" s="1" t="s">
-        <v>269</v>
       </c>
       <c r="K257">
         <v>0.1382385730211817</v>
@@ -16277,25 +16277,25 @@
         <v>263</v>
       </c>
       <c r="B258">
-        <v>0.005813953488372093</v>
+        <v>0.0056657223796034</v>
       </c>
       <c r="C258">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D258">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="E258">
-        <v>0.9399999999999999</v>
+        <v>0.78</v>
       </c>
       <c r="F258">
-        <v>0.06000000000000005</v>
+        <v>0.22</v>
       </c>
       <c r="G258" t="b">
         <v>1</v>
       </c>
       <c r="H258">
-        <v>513</v>
+        <v>351</v>
       </c>
       <c r="J258" s="1" t="s">
         <v>475</v>
@@ -16327,25 +16327,25 @@
         <v>264</v>
       </c>
       <c r="B259">
-        <v>0.005714285714285714</v>
+        <v>0.005319148936170213</v>
       </c>
       <c r="C259">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D259">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E259">
-        <v>0.87</v>
+        <v>0.96</v>
       </c>
       <c r="F259">
-        <v>0.13</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G259" t="b">
         <v>1</v>
       </c>
       <c r="H259">
-        <v>522</v>
+        <v>187</v>
       </c>
       <c r="J259" s="1" t="s">
         <v>476</v>
@@ -16377,25 +16377,25 @@
         <v>265</v>
       </c>
       <c r="B260">
-        <v>0.0056657223796034</v>
+        <v>0.005291005291005291</v>
       </c>
       <c r="C260">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D260">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E260">
-        <v>0.78</v>
+        <v>0</v>
       </c>
       <c r="F260">
-        <v>0.22</v>
+        <v>1</v>
       </c>
       <c r="G260" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H260">
-        <v>351</v>
+        <v>188</v>
       </c>
       <c r="J260" s="1" t="s">
         <v>477</v>
@@ -16427,28 +16427,28 @@
         <v>266</v>
       </c>
       <c r="B261">
-        <v>0.005319148936170213</v>
+        <v>0.005208333333333333</v>
       </c>
       <c r="C261">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D261">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="E261">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F261">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G261" t="b">
         <v>1</v>
       </c>
       <c r="H261">
-        <v>187</v>
+        <v>764</v>
       </c>
       <c r="J261" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K261">
         <v>0.1368421052631579</v>
@@ -16477,25 +16477,25 @@
         <v>267</v>
       </c>
       <c r="B262">
-        <v>0.005291005291005291</v>
+        <v>0.005148005148005148</v>
       </c>
       <c r="C262">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D262">
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="E262">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F262">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G262" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H262">
-        <v>188</v>
+        <v>773</v>
       </c>
       <c r="J262" s="1" t="s">
         <v>478</v>
@@ -16527,13 +16527,13 @@
         <v>268</v>
       </c>
       <c r="B263">
-        <v>0.005208333333333333</v>
+        <v>0.004950495049504951</v>
       </c>
       <c r="C263">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D263">
-        <v>130</v>
+        <v>29</v>
       </c>
       <c r="E263">
         <v>0.97</v>
@@ -16545,7 +16545,7 @@
         <v>1</v>
       </c>
       <c r="H263">
-        <v>764</v>
+        <v>201</v>
       </c>
       <c r="J263" s="1" t="s">
         <v>479</v>
@@ -16577,25 +16577,25 @@
         <v>269</v>
       </c>
       <c r="B264">
-        <v>0.005148005148005148</v>
+        <v>0.004784688995215311</v>
       </c>
       <c r="C264">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D264">
-        <v>128</v>
+        <v>175</v>
       </c>
       <c r="E264">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="F264">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G264" t="b">
         <v>1</v>
       </c>
       <c r="H264">
-        <v>773</v>
+        <v>208</v>
       </c>
       <c r="J264" s="1" t="s">
         <v>480</v>
@@ -16627,25 +16627,25 @@
         <v>270</v>
       </c>
       <c r="B265">
-        <v>0.004950495049504951</v>
+        <v>0.004694835680751174</v>
       </c>
       <c r="C265">
         <v>1</v>
       </c>
       <c r="D265">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E265">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F265">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G265" t="b">
         <v>1</v>
       </c>
       <c r="H265">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="J265" s="1" t="s">
         <v>481</v>
@@ -16677,28 +16677,28 @@
         <v>271</v>
       </c>
       <c r="B266">
-        <v>0.004784688995215311</v>
+        <v>0.004424778761061947</v>
       </c>
       <c r="C266">
         <v>1</v>
       </c>
       <c r="D266">
-        <v>175</v>
+        <v>5</v>
       </c>
       <c r="E266">
-        <v>0.99</v>
+        <v>0.8</v>
       </c>
       <c r="F266">
-        <v>0.01000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="G266" t="b">
         <v>1</v>
       </c>
       <c r="H266">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="J266" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K266">
         <v>0.1333333333333333</v>
@@ -16727,25 +16727,25 @@
         <v>272</v>
       </c>
       <c r="B267">
-        <v>0.004694835680751174</v>
+        <v>0.00425531914893617</v>
       </c>
       <c r="C267">
         <v>1</v>
       </c>
       <c r="D267">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="E267">
-        <v>0.96</v>
+        <v>0.5</v>
       </c>
       <c r="F267">
-        <v>0.04000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="G267" t="b">
         <v>1</v>
       </c>
       <c r="H267">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="J267" s="1" t="s">
         <v>482</v>
@@ -16777,25 +16777,25 @@
         <v>273</v>
       </c>
       <c r="B268">
-        <v>0.004424778761061947</v>
+        <v>0.003627130939426913</v>
       </c>
       <c r="C268">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D268">
-        <v>5</v>
+        <v>360</v>
       </c>
       <c r="E268">
-        <v>0.8</v>
+        <v>0.97</v>
       </c>
       <c r="F268">
-        <v>0.2</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G268" t="b">
         <v>1</v>
       </c>
       <c r="H268">
-        <v>225</v>
+        <v>2747</v>
       </c>
       <c r="J268" s="1" t="s">
         <v>483</v>
@@ -16827,25 +16827,25 @@
         <v>274</v>
       </c>
       <c r="B269">
-        <v>0.00425531914893617</v>
+        <v>0.003019121100301912</v>
       </c>
       <c r="C269">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D269">
-        <v>2</v>
+        <v>229</v>
       </c>
       <c r="E269">
-        <v>0.5</v>
+        <v>0.96</v>
       </c>
       <c r="F269">
-        <v>0.5</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G269" t="b">
         <v>1</v>
       </c>
       <c r="H269">
-        <v>234</v>
+        <v>2972</v>
       </c>
       <c r="J269" s="1" t="s">
         <v>484</v>
@@ -16877,28 +16877,28 @@
         <v>275</v>
       </c>
       <c r="B270">
-        <v>0.003627130939426913</v>
+        <v>0.002744739249771272</v>
       </c>
       <c r="C270">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D270">
-        <v>360</v>
+        <v>71</v>
       </c>
       <c r="E270">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F270">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G270" t="b">
         <v>1</v>
       </c>
       <c r="H270">
-        <v>2747</v>
+        <v>1090</v>
       </c>
       <c r="J270" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K270">
         <v>0.1333333333333333</v>
@@ -16927,25 +16927,25 @@
         <v>276</v>
       </c>
       <c r="B271">
-        <v>0.003019121100301912</v>
+        <v>0.002680965147453083</v>
       </c>
       <c r="C271">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D271">
-        <v>229</v>
+        <v>1</v>
       </c>
       <c r="E271">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F271">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G271" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H271">
-        <v>2972</v>
+        <v>372</v>
       </c>
       <c r="J271" s="1" t="s">
         <v>485</v>
@@ -16973,32 +16973,8 @@
       </c>
     </row>
     <row r="272" spans="1:17">
-      <c r="A272" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B272">
-        <v>0.002744739249771272</v>
-      </c>
-      <c r="C272">
-        <v>3</v>
-      </c>
-      <c r="D272">
-        <v>71</v>
-      </c>
-      <c r="E272">
-        <v>0.96</v>
-      </c>
-      <c r="F272">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="G272" t="b">
-        <v>1</v>
-      </c>
-      <c r="H272">
-        <v>1090</v>
-      </c>
       <c r="J272" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K272">
         <v>0.1313868613138686</v>
@@ -17022,31 +16998,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="273" spans="1:17">
-      <c r="A273" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B273">
-        <v>0.002680965147453083</v>
-      </c>
-      <c r="C273">
-        <v>1</v>
-      </c>
-      <c r="D273">
-        <v>1</v>
-      </c>
-      <c r="E273">
-        <v>0</v>
-      </c>
-      <c r="F273">
-        <v>1</v>
-      </c>
-      <c r="G273" t="b">
-        <v>0</v>
-      </c>
-      <c r="H273">
-        <v>372</v>
-      </c>
+    <row r="273" spans="10:17">
       <c r="J273" s="1" t="s">
         <v>486</v>
       </c>
@@ -17072,7 +17024,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="274" spans="1:17">
+    <row r="274" spans="10:17">
       <c r="J274" s="1" t="s">
         <v>487</v>
       </c>
@@ -17098,7 +17050,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="275" spans="1:17">
+    <row r="275" spans="10:17">
       <c r="J275" s="1" t="s">
         <v>488</v>
       </c>
@@ -17124,7 +17076,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="276" spans="1:17">
+    <row r="276" spans="10:17">
       <c r="J276" s="1" t="s">
         <v>489</v>
       </c>
@@ -17150,9 +17102,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="277" spans="1:17">
+    <row r="277" spans="10:17">
       <c r="J277" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K277">
         <v>0.1292307692307692</v>
@@ -17176,7 +17128,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="278" spans="1:17">
+    <row r="278" spans="10:17">
       <c r="J278" s="1" t="s">
         <v>490</v>
       </c>
@@ -17202,7 +17154,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="279" spans="1:17">
+    <row r="279" spans="10:17">
       <c r="J279" s="1" t="s">
         <v>491</v>
       </c>
@@ -17228,7 +17180,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="280" spans="1:17">
+    <row r="280" spans="10:17">
       <c r="J280" s="1" t="s">
         <v>492</v>
       </c>
@@ -17254,9 +17206,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="281" spans="1:17">
+    <row r="281" spans="10:17">
       <c r="J281" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K281">
         <v>0.1261682242990654</v>
@@ -17280,7 +17232,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="282" spans="1:17">
+    <row r="282" spans="10:17">
       <c r="J282" s="1" t="s">
         <v>493</v>
       </c>
@@ -17306,7 +17258,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="283" spans="1:17">
+    <row r="283" spans="10:17">
       <c r="J283" s="1" t="s">
         <v>494</v>
       </c>
@@ -17332,7 +17284,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="284" spans="1:17">
+    <row r="284" spans="10:17">
       <c r="J284" s="1" t="s">
         <v>495</v>
       </c>
@@ -17358,7 +17310,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="285" spans="1:17">
+    <row r="285" spans="10:17">
       <c r="J285" s="1" t="s">
         <v>496</v>
       </c>
@@ -17384,7 +17336,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="286" spans="1:17">
+    <row r="286" spans="10:17">
       <c r="J286" s="1" t="s">
         <v>497</v>
       </c>
@@ -17410,7 +17362,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="287" spans="1:17">
+    <row r="287" spans="10:17">
       <c r="J287" s="1" t="s">
         <v>498</v>
       </c>
@@ -17436,7 +17388,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="288" spans="1:17">
+    <row r="288" spans="10:17">
       <c r="J288" s="1" t="s">
         <v>499</v>
       </c>
@@ -18322,7 +18274,7 @@
     </row>
     <row r="322" spans="10:17">
       <c r="J322" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K322">
         <v>0.1228070175438596</v>
@@ -18348,7 +18300,7 @@
     </row>
     <row r="323" spans="10:17">
       <c r="J323" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K323">
         <v>0.1222707423580786</v>
@@ -18374,7 +18326,7 @@
     </row>
     <row r="324" spans="10:17">
       <c r="J324" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K324">
         <v>0.1209677419354839</v>
@@ -18400,7 +18352,7 @@
     </row>
     <row r="325" spans="10:17">
       <c r="J325" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K325">
         <v>0.1200750469043152</v>
@@ -18712,7 +18664,7 @@
     </row>
     <row r="337" spans="10:17">
       <c r="J337" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K337">
         <v>0.1176470588235294</v>
@@ -18764,7 +18716,7 @@
     </row>
     <row r="339" spans="10:17">
       <c r="J339" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K339">
         <v>0.1168831168831169</v>
@@ -18790,7 +18742,7 @@
     </row>
     <row r="340" spans="10:17">
       <c r="J340" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K340">
         <v>0.1164383561643836</v>
@@ -18946,7 +18898,7 @@
     </row>
     <row r="346" spans="10:17">
       <c r="J346" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K346">
         <v>0.1130125928317727</v>
@@ -19752,7 +19704,7 @@
     </row>
     <row r="377" spans="10:17">
       <c r="J377" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K377">
         <v>0.1069767441860465</v>
@@ -19778,7 +19730,7 @@
     </row>
     <row r="378" spans="10:17">
       <c r="J378" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K378">
         <v>0.1063829787234043</v>
@@ -20012,7 +19964,7 @@
     </row>
     <row r="387" spans="10:17">
       <c r="J387" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K387">
         <v>0.1032608695652174</v>
@@ -20064,7 +20016,7 @@
     </row>
     <row r="389" spans="10:17">
       <c r="J389" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K389">
         <v>0.1016949152542373</v>
@@ -20090,7 +20042,7 @@
     </row>
     <row r="390" spans="10:17">
       <c r="J390" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K390">
         <v>0.1</v>
@@ -20246,7 +20198,7 @@
     </row>
     <row r="396" spans="10:17">
       <c r="J396" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K396">
         <v>0.1</v>
@@ -20350,7 +20302,7 @@
     </row>
     <row r="400" spans="10:17">
       <c r="J400" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K400">
         <v>0.1</v>
@@ -20740,7 +20692,7 @@
     </row>
     <row r="415" spans="10:17">
       <c r="J415" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K415">
         <v>0.0990990990990991</v>
@@ -20844,7 +20796,7 @@
     </row>
     <row r="419" spans="10:17">
       <c r="J419" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K419">
         <v>0.09615384615384616</v>
@@ -20896,7 +20848,7 @@
     </row>
     <row r="421" spans="10:17">
       <c r="J421" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K421">
         <v>0.09322033898305085</v>
@@ -20922,7 +20874,7 @@
     </row>
     <row r="422" spans="10:17">
       <c r="J422" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K422">
         <v>0.09278350515463918</v>
@@ -21156,7 +21108,7 @@
     </row>
     <row r="431" spans="10:17">
       <c r="J431" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K431">
         <v>0.09090909090909091</v>
@@ -21286,7 +21238,7 @@
     </row>
     <row r="436" spans="10:17">
       <c r="J436" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K436">
         <v>0.09090909090909091</v>
@@ -21754,7 +21706,7 @@
     </row>
     <row r="454" spans="10:17">
       <c r="J454" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K454">
         <v>0.09042553191489362</v>
@@ -21780,7 +21732,7 @@
     </row>
     <row r="455" spans="10:17">
       <c r="J455" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K455">
         <v>0.09009009009009009</v>
@@ -21858,7 +21810,7 @@
     </row>
     <row r="458" spans="10:17">
       <c r="J458" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K458">
         <v>0.08695652173913043</v>
@@ -21910,7 +21862,7 @@
     </row>
     <row r="460" spans="10:17">
       <c r="J460" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K460">
         <v>0.08695652173913043</v>
@@ -22196,7 +22148,7 @@
     </row>
     <row r="471" spans="10:17">
       <c r="J471" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K471">
         <v>0.08372093023255814</v>
@@ -22768,7 +22720,7 @@
     </row>
     <row r="493" spans="10:17">
       <c r="J493" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K493">
         <v>0.08163265306122448</v>
@@ -23028,7 +22980,7 @@
     </row>
     <row r="503" spans="10:17">
       <c r="J503" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K503">
         <v>0.08</v>
@@ -23132,7 +23084,7 @@
     </row>
     <row r="507" spans="10:17">
       <c r="J507" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K507">
         <v>0.07692307692307693</v>
@@ -23210,7 +23162,7 @@
     </row>
     <row r="510" spans="10:17">
       <c r="J510" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K510">
         <v>0.07692307692307693</v>
@@ -23496,7 +23448,7 @@
     </row>
     <row r="521" spans="10:17">
       <c r="J521" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K521">
         <v>0.07692307692307693</v>
@@ -23808,7 +23760,7 @@
     </row>
     <row r="533" spans="10:17">
       <c r="J533" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K533">
         <v>0.07368421052631578</v>
@@ -23834,7 +23786,7 @@
     </row>
     <row r="534" spans="10:17">
       <c r="J534" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K534">
         <v>0.07317073170731707</v>
@@ -24042,7 +23994,7 @@
     </row>
     <row r="542" spans="10:17">
       <c r="J542" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K542">
         <v>0.07142857142857142</v>
@@ -24172,7 +24124,7 @@
     </row>
     <row r="547" spans="10:17">
       <c r="J547" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K547">
         <v>0.07142857142857142</v>
@@ -24510,7 +24462,7 @@
     </row>
     <row r="560" spans="10:17">
       <c r="J560" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K560">
         <v>0.07142857142857142</v>
@@ -24614,7 +24566,7 @@
     </row>
     <row r="564" spans="10:17">
       <c r="J564" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K564">
         <v>0.07042253521126761</v>
@@ -24770,7 +24722,7 @@
     </row>
     <row r="570" spans="10:17">
       <c r="J570" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K570">
         <v>0.06892230576441102</v>
@@ -24822,7 +24774,7 @@
     </row>
     <row r="572" spans="10:17">
       <c r="J572" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K572">
         <v>0.06818181818181818</v>
@@ -25030,7 +24982,7 @@
     </row>
     <row r="580" spans="10:17">
       <c r="J580" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K580">
         <v>0.06666666666666667</v>
@@ -25056,7 +25008,7 @@
     </row>
     <row r="581" spans="10:17">
       <c r="J581" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K581">
         <v>0.06666666666666667</v>
@@ -25498,7 +25450,7 @@
     </row>
     <row r="598" spans="10:17">
       <c r="J598" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K598">
         <v>0.06451612903225806</v>
@@ -25550,7 +25502,7 @@
     </row>
     <row r="600" spans="10:17">
       <c r="J600" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K600">
         <v>0.06451612903225806</v>
@@ -25732,7 +25684,7 @@
     </row>
     <row r="607" spans="10:17">
       <c r="J607" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K607">
         <v>0.06349206349206349</v>
@@ -25784,7 +25736,7 @@
     </row>
     <row r="609" spans="10:17">
       <c r="J609" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K609">
         <v>0.06329113924050633</v>
@@ -26200,7 +26152,7 @@
     </row>
     <row r="625" spans="10:17">
       <c r="J625" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K625">
         <v>0.06153846153846154</v>
@@ -26226,7 +26178,7 @@
     </row>
     <row r="626" spans="10:17">
       <c r="J626" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K626">
         <v>0.06122448979591837</v>
@@ -26694,7 +26646,7 @@
     </row>
     <row r="644" spans="10:17">
       <c r="J644" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K644">
         <v>0.05872193436960276</v>
@@ -26798,7 +26750,7 @@
     </row>
     <row r="648" spans="10:17">
       <c r="J648" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K648">
         <v>0.05681818181818182</v>
@@ -26850,7 +26802,7 @@
     </row>
     <row r="650" spans="10:17">
       <c r="J650" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K650">
         <v>0.05555555555555555</v>
@@ -27838,7 +27790,7 @@
     </row>
     <row r="688" spans="10:17">
       <c r="J688" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K688">
         <v>0.0505050505050505</v>
@@ -28150,7 +28102,7 @@
     </row>
     <row r="700" spans="10:17">
       <c r="J700" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K700">
         <v>0.049079754601227</v>
@@ -29060,7 +29012,7 @@
     </row>
     <row r="735" spans="10:17">
       <c r="J735" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K735">
         <v>0.04347826086956522</v>
@@ -29424,7 +29376,7 @@
     </row>
     <row r="749" spans="10:17">
       <c r="J749" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K749">
         <v>0.04081632653061224</v>
@@ -29450,7 +29402,7 @@
     </row>
     <row r="750" spans="10:17">
       <c r="J750" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K750">
         <v>0.04</v>
@@ -29840,7 +29792,7 @@
     </row>
     <row r="765" spans="10:17">
       <c r="J765" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K765">
         <v>0.03703703703703703</v>
@@ -29970,7 +29922,7 @@
     </row>
     <row r="770" spans="10:17">
       <c r="J770" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K770">
         <v>0.03690036900369004</v>
@@ -30204,7 +30156,7 @@
     </row>
     <row r="779" spans="10:17">
       <c r="J779" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K779">
         <v>0.03571428571428571</v>
@@ -30230,7 +30182,7 @@
     </row>
     <row r="780" spans="10:17">
       <c r="J780" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K780">
         <v>0.03545359749739312</v>
@@ -30256,7 +30208,7 @@
     </row>
     <row r="781" spans="10:17">
       <c r="J781" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K781">
         <v>0.03529411764705882</v>
@@ -31686,7 +31638,7 @@
     </row>
     <row r="836" spans="10:17">
       <c r="J836" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K836">
         <v>0.02631578947368421</v>
@@ -31946,7 +31898,7 @@
     </row>
     <row r="846" spans="10:17">
       <c r="J846" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K846">
         <v>0.02469135802469136</v>
@@ -32310,7 +32262,7 @@
     </row>
     <row r="860" spans="10:17">
       <c r="J860" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K860">
         <v>0.02</v>
@@ -32362,7 +32314,7 @@
     </row>
     <row r="862" spans="10:17">
       <c r="J862" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K862">
         <v>0.01955307262569832</v>
@@ -32388,7 +32340,7 @@
     </row>
     <row r="863" spans="10:17">
       <c r="J863" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K863">
         <v>0.01904761904761905</v>
@@ -32440,7 +32392,7 @@
     </row>
     <row r="865" spans="10:17">
       <c r="J865" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K865">
         <v>0.01746724890829694</v>
@@ -32570,7 +32522,7 @@
     </row>
     <row r="870" spans="10:17">
       <c r="J870" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K870">
         <v>0.01538461538461539</v>
@@ -32830,7 +32782,7 @@
     </row>
     <row r="880" spans="10:17">
       <c r="J880" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K880">
         <v>0.0101010101010101</v>
@@ -32986,7 +32938,7 @@
     </row>
     <row r="886" spans="10:17">
       <c r="J886" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K886">
         <v>0.00425531914893617</v>
